--- a/data/trans_bre/P16A08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.183114563764686</v>
+        <v>-4.039396742171786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.723070523633543</v>
+        <v>-1.659591337097661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.669918904799666</v>
+        <v>-1.675255105407233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2458315899130289</v>
+        <v>-0.2001340548896423</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7714490269268569</v>
+        <v>-0.7557086413883853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3314673346553677</v>
+        <v>-0.3501990434456441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3725775356654438</v>
+        <v>-0.3648381907836019</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.08335913320929474</v>
+        <v>-0.1007856790557082</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.266003688148223</v>
+        <v>1.145268068722205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.877028260212404</v>
+        <v>4.906694202398645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.274430249801135</v>
+        <v>4.122443979179846</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.204924192223811</v>
+        <v>5.039054858067806</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.58020675303715</v>
+        <v>0.5682216282405582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.763520142789444</v>
+        <v>1.660816532552893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.662398365148783</v>
+        <v>1.694819947197162</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.670025943755151</v>
+        <v>2.501228513941457</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.849058892533954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.169037804749688</v>
+        <v>4.169037804749689</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>11.49193746278586</v>
@@ -749,7 +749,7 @@
         <v>0.5077534023197434</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.25393126573411</v>
+        <v>1.253931265734111</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.632577320104308</v>
+        <v>3.751644303610777</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.081786503664617</v>
+        <v>-1.496709094945783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.08704328562272</v>
+        <v>-1.163942201570523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.476695198383045</v>
+        <v>1.513238353194043</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.572010765419876</v>
+        <v>1.558214805916397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2048859160261559</v>
+        <v>-0.2826546575860089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2553361873055884</v>
+        <v>-0.2654492512767731</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.228747859344149</v>
+        <v>0.2462775945586976</v>
       </c>
     </row>
     <row r="9">
@@ -792,26 +792,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.457824833677924</v>
+        <v>9.246481794689698</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.010587497615134</v>
+        <v>6.022918427909853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.960480104185726</v>
+        <v>5.206484355559061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.199587979224212</v>
+        <v>7.195913942578838</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.884569876344307</v>
+        <v>1.975192667586538</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.13275108535647</v>
+        <v>2.351016955764094</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.292242091765622</v>
+        <v>3.213261717851108</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>5.708574804494473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.153858677581762</v>
+        <v>1.153858677581761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3246181103987</v>
@@ -847,7 +847,7 @@
         <v>2.267548680745768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2649462453685654</v>
+        <v>0.264946245368565</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.94146133044155</v>
+        <v>-2.757716630018417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.126073220080349</v>
+        <v>-1.109673470935167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.794022788965075</v>
+        <v>1.691841149354067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.058928444121815</v>
+        <v>-1.876433350389998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8405411448732937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3448767726248891</v>
+        <v>-0.3061931995318749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4691912589215554</v>
+        <v>0.3548031097136551</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3665331927576469</v>
+        <v>-0.3681002090892381</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.709359117595943</v>
+        <v>2.171756167826761</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.680819601450496</v>
+        <v>5.387575926991802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.19605250484361</v>
+        <v>11.62413065718646</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.748948918073313</v>
+        <v>4.756630722299132</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.028489382649062</v>
+        <v>1.334294265014279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.33601214134854</v>
+        <v>2.339072842400927</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.425841291703867</v>
+        <v>6.438434943954422</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.564207805937829</v>
+        <v>1.635488033671558</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>3.628564599287731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.552695191143013</v>
+        <v>1.552695191143012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7497626148136013</v>
@@ -947,7 +947,7 @@
         <v>1.50428119297216</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5035529817408361</v>
+        <v>0.5035529817408356</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2207017608066847</v>
+        <v>0.1843058181555619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.786604028956611</v>
+        <v>2.813519599404175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.683118022607095</v>
+        <v>1.913732296342407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2754120217271459</v>
+        <v>-0.3072862481199525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02479784272356893</v>
+        <v>0.03194280696556129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8497130303043444</v>
+        <v>0.8738339052585937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5205345178343408</v>
+        <v>0.5429454523992954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08351336637228123</v>
+        <v>-0.08978129149237096</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.696410191572552</v>
+        <v>3.868615204757788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.317061207112954</v>
+        <v>7.188864900175868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.63982759085807</v>
+        <v>5.775404262536821</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.16892213650348</v>
+        <v>3.257761821799591</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.117878877707517</v>
+        <v>2.196676551785081</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.851403166296591</v>
+        <v>4.073549357939731</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.998666495344473</v>
+        <v>3.046726651853495</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.32263334418753</v>
+        <v>1.37653289896011</v>
       </c>
     </row>
     <row r="16">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2519528783369691</v>
+        <v>-0.3069268755230573</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.022413772845173</v>
+        <v>-1.061793290764356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3894623760994858</v>
+        <v>-0.1549535294985301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9870974701205404</v>
+        <v>-1.054585428729427</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1984229889982471</v>
+        <v>-0.2117778387429115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2661502605504044</v>
+        <v>-0.3008019175416218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08676375397784182</v>
+        <v>-0.07441883740117328</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2152331814706022</v>
+        <v>-0.2230850942662929</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.018466356958745</v>
+        <v>3.947561553614801</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.164103049516909</v>
+        <v>3.200836969657862</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.090071242046791</v>
+        <v>4.219212850812778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.07065668213648</v>
+        <v>3.07584180598531</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.146641926689538</v>
+        <v>4.970438157663824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.651856381634617</v>
+        <v>1.758351209555936</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.921247779773519</v>
+        <v>1.764420392850807</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.30181249595726</v>
+        <v>1.367364112935597</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1135,7 @@
         <v>-0.1229069714319728</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6161360665254655</v>
+        <v>0.6161360665254647</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.555232318086602</v>
@@ -1147,7 +1147,7 @@
         <v>-0.02551783059896451</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1957507471357625</v>
+        <v>0.1957507471357622</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.8144045618097742</v>
+        <v>-0.6397430881375432</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.524152999784695</v>
+        <v>-4.875243196890443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.870806795863655</v>
+        <v>-3.090814558811381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.931917481740357</v>
+        <v>-4.495843861679254</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2408124560147889</v>
+        <v>-0.164013024015203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5255964921275603</v>
+        <v>-0.5216963297517537</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4878199134436552</v>
+        <v>-0.4364893801883483</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6101873551581968</v>
+        <v>-0.6243442400887778</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.932945798452191</v>
+        <v>3.071401485506621</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.930474825765394</v>
+        <v>1.892362325725155</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.22623949806387</v>
+        <v>2.386486092036884</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.173559649423161</v>
+        <v>3.018963945620598</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.387205856506555</v>
+        <v>2.87410535138121</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5629188942616957</v>
+        <v>0.5414835542178187</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.796601903365965</v>
+        <v>0.8890709103858158</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.864334262344533</v>
+        <v>2.859537812027482</v>
       </c>
     </row>
     <row r="22">
@@ -1247,7 +1247,7 @@
         <v>0.7429810435560787</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.474588340128326</v>
+        <v>0.4745883401283261</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.636256791069733</v>
+        <v>0.6735451408151125</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.078761695665766</v>
+        <v>1.025511340374807</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.294727113704377</v>
+        <v>1.277759770916262</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6293275814868408</v>
+        <v>0.6106484803518655</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2186901551971713</v>
+        <v>0.231237084025195</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.258266502037628</v>
+        <v>0.2501791118974626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3704846442025415</v>
+        <v>0.3565249053969604</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1593520783998318</v>
+        <v>0.1561084133348792</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.498072258011613</v>
+        <v>2.406657890697497</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.174442685070193</v>
+        <v>3.160567596874054</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.188448701750648</v>
+        <v>3.26539532327837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.516483377906683</v>
+        <v>2.589352521403066</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.213679017383686</v>
+        <v>1.180205302697023</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.049951101248622</v>
+        <v>1.062772400986198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.202256803749574</v>
+        <v>1.229610475476861</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8897693095321324</v>
+        <v>0.9382122084252338</v>
       </c>
     </row>
     <row r="25">
